--- a/Code/Results/Cases/Case_1_147/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_147/res_bus/vm_pu.xlsx
@@ -418,28 +418,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9406701231914573</v>
+        <v>1.033366029227541</v>
       </c>
       <c r="E2">
-        <v>0.9587835942880246</v>
+        <v>1.041296853725589</v>
       </c>
       <c r="F2">
-        <v>0.9587906776523066</v>
+        <v>1.049333393264742</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.964782742347422</v>
+        <v>1.038491151223592</v>
       </c>
       <c r="L2">
-        <v>0.9708486554631143</v>
+        <v>1.044076768678686</v>
       </c>
       <c r="M2">
-        <v>0.970855629014184</v>
+        <v>1.052090743175996</v>
       </c>
       <c r="N2">
-        <v>0.9894316961923436</v>
+        <v>1.016359438818662</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -447,28 +447,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9524186050830667</v>
+        <v>1.035456500123056</v>
       </c>
       <c r="E3">
-        <v>0.9692419938083159</v>
+        <v>1.043210675826196</v>
       </c>
       <c r="F3">
-        <v>0.9702422685813336</v>
+        <v>1.051452051245787</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9742961429359164</v>
+        <v>1.040218527726439</v>
       </c>
       <c r="L3">
-        <v>0.9802841676473345</v>
+        <v>1.045798295184488</v>
       </c>
       <c r="M3">
-        <v>0.9812706174023298</v>
+        <v>1.054018255724803</v>
       </c>
       <c r="N3">
-        <v>0.9929555615789047</v>
+        <v>1.016972109842518</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -476,28 +476,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9596667929265302</v>
+        <v>1.036804338530668</v>
       </c>
       <c r="E4">
-        <v>0.9757032499612426</v>
+        <v>1.044444645201333</v>
       </c>
       <c r="F4">
-        <v>0.9773197444983349</v>
+        <v>1.052818661432288</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9801616929219904</v>
+        <v>1.041331346126494</v>
       </c>
       <c r="L4">
-        <v>0.9861040388340184</v>
+        <v>1.046907440178717</v>
       </c>
       <c r="M4">
-        <v>0.9876998335070301</v>
+        <v>1.055260824523871</v>
       </c>
       <c r="N4">
-        <v>0.9951252939962191</v>
+        <v>1.017365833892181</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -505,28 +505,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9626369232228105</v>
+        <v>1.037369841693725</v>
       </c>
       <c r="E5">
-        <v>0.9783528230347591</v>
+        <v>1.044962378131683</v>
       </c>
       <c r="F5">
-        <v>0.9802227022168322</v>
+        <v>1.053392182731226</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9825642106938944</v>
+        <v>1.041798024285772</v>
       </c>
       <c r="L5">
-        <v>0.9884883668270318</v>
+        <v>1.047372600427122</v>
       </c>
       <c r="M5">
-        <v>0.9903350710637395</v>
+        <v>1.055782111355798</v>
       </c>
       <c r="N5">
-        <v>0.9960131695381311</v>
+        <v>1.017530713907021</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -534,28 +534,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9631313086352358</v>
+        <v>1.037464726867819</v>
       </c>
       <c r="E6">
-        <v>0.9787939566580479</v>
+        <v>1.045049248248011</v>
       </c>
       <c r="F6">
-        <v>0.9807060647623954</v>
+        <v>1.05348842157114</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.9829640503111986</v>
+        <v>1.041876314838629</v>
       </c>
       <c r="L6">
-        <v>0.9888852087019292</v>
+        <v>1.047450637651735</v>
       </c>
       <c r="M6">
-        <v>0.9907737489818053</v>
+        <v>1.055869574615348</v>
       </c>
       <c r="N6">
-        <v>0.9961608810379832</v>
+        <v>1.01755836060787</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -563,28 +563,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9597067731935067</v>
+        <v>1.036811899204402</v>
       </c>
       <c r="E7">
-        <v>0.9757389080036777</v>
+        <v>1.0444515671777</v>
       </c>
       <c r="F7">
-        <v>0.9773588097804057</v>
+        <v>1.052826328749198</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.9801940370030682</v>
+        <v>1.0413375863911</v>
       </c>
       <c r="L7">
-        <v>0.9861361360194616</v>
+        <v>1.046913660057775</v>
       </c>
       <c r="M7">
-        <v>0.9877353033046458</v>
+        <v>1.055267794227486</v>
       </c>
       <c r="N7">
-        <v>0.9951372506112884</v>
+        <v>1.017368039536576</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -592,28 +592,28 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9447188716536067</v>
+        <v>1.034073532951003</v>
       </c>
       <c r="E8">
-        <v>0.9623856726026722</v>
+        <v>1.041944565930772</v>
       </c>
       <c r="F8">
-        <v>0.9627343128094442</v>
+        <v>1.050050311958026</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.9680619314356632</v>
+        <v>1.039075957746021</v>
       </c>
       <c r="L8">
-        <v>0.9741004678994147</v>
+        <v>1.04465957474345</v>
       </c>
       <c r="M8">
-        <v>0.9744439069496258</v>
+        <v>1.05274313626363</v>
       </c>
       <c r="N8">
-        <v>0.9906468771821587</v>
+        <v>1.016567061135038</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -621,28 +621,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9151748993590438</v>
+        <v>1.029209801128962</v>
       </c>
       <c r="E9">
-        <v>0.9361545166681794</v>
+        <v>1.037492025308603</v>
       </c>
       <c r="F9">
-        <v>0.9340243381568699</v>
+        <v>1.04512436522637</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.9441248047241547</v>
+        <v>1.035051958522593</v>
       </c>
       <c r="L9">
-        <v>0.9503759710565572</v>
+        <v>1.040649743577525</v>
       </c>
       <c r="M9">
-        <v>0.9482869259773916</v>
+        <v>1.048257462646568</v>
       </c>
       <c r="N9">
-        <v>0.9817702740422679</v>
+        <v>1.015134458890293</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -650,28 +650,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.8926104190860679</v>
+        <v>1.025939617291361</v>
       </c>
       <c r="E10">
-        <v>0.9162101577309066</v>
+        <v>1.034498556500014</v>
       </c>
       <c r="F10">
-        <v>0.9122014266076002</v>
+        <v>1.041815550827718</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.9258434061875628</v>
+        <v>1.032341682945348</v>
       </c>
       <c r="L10">
-        <v>0.9322771519359982</v>
+        <v>1.037949528146232</v>
       </c>
       <c r="M10">
-        <v>0.928360101787724</v>
+        <v>1.045240498997321</v>
       </c>
       <c r="N10">
-        <v>0.9749929109167155</v>
+        <v>1.014164613834183</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -679,28 +679,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.8819158412008387</v>
+        <v>1.024516597594766</v>
       </c>
       <c r="E11">
-        <v>0.906787315448628</v>
+        <v>1.033196024245223</v>
       </c>
       <c r="F11">
-        <v>0.9018904358710493</v>
+        <v>1.04037649423181</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.9171842076014294</v>
+        <v>1.031161200832586</v>
       </c>
       <c r="L11">
-        <v>0.923710712858606</v>
+        <v>1.036773553826061</v>
       </c>
       <c r="M11">
-        <v>0.9189344155542707</v>
+        <v>1.043927448861384</v>
       </c>
       <c r="N11">
-        <v>0.9717872094098994</v>
+        <v>1.013741033680938</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -708,28 +708,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8777755549434743</v>
+        <v>1.023986934918853</v>
       </c>
       <c r="E12">
-        <v>0.9031448295958912</v>
+        <v>1.032711220915081</v>
       </c>
       <c r="F12">
-        <v>0.8979042947929052</v>
+        <v>1.039840979805728</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.913833307714544</v>
+        <v>1.030721647574991</v>
       </c>
       <c r="L12">
-        <v>0.9203968193082216</v>
+        <v>1.036335698255755</v>
       </c>
       <c r="M12">
-        <v>0.9152889499180731</v>
+        <v>1.043438686032645</v>
       </c>
       <c r="N12">
-        <v>0.9705477918726501</v>
+        <v>1.013583141053325</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -737,28 +737,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.8786718251183251</v>
+        <v>1.024100599274608</v>
       </c>
       <c r="E13">
-        <v>0.9039330742134729</v>
+        <v>1.032815257965508</v>
       </c>
       <c r="F13">
-        <v>0.8987669269977031</v>
+        <v>1.039955894605356</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.9145586201279349</v>
+        <v>1.030815982143405</v>
       </c>
       <c r="L13">
-        <v>0.9211140684616019</v>
+        <v>1.036429667602275</v>
       </c>
       <c r="M13">
-        <v>0.9160779278678327</v>
+        <v>1.043543574808477</v>
       </c>
       <c r="N13">
-        <v>0.9708160094506498</v>
+        <v>1.013617034894785</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -766,28 +766,28 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8815772292666418</v>
+        <v>1.024472837959735</v>
       </c>
       <c r="E14">
-        <v>0.9064892995739272</v>
+        <v>1.033155970530062</v>
       </c>
       <c r="F14">
-        <v>0.9015643116167842</v>
+        <v>1.040332248738053</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.9169101229006718</v>
+        <v>1.031124889223288</v>
       </c>
       <c r="L14">
-        <v>0.9234396315964327</v>
+        <v>1.036737382070019</v>
       </c>
       <c r="M14">
-        <v>0.9186361951214298</v>
+        <v>1.043887068933161</v>
       </c>
       <c r="N14">
-        <v>0.9716858068204447</v>
+        <v>1.013727993633358</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -795,28 +795,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.8833440775647827</v>
+        <v>1.024702040976964</v>
       </c>
       <c r="E15">
-        <v>0.9080445473252743</v>
+        <v>1.033365763308621</v>
       </c>
       <c r="F15">
-        <v>0.903266232823186</v>
+        <v>1.040564001381582</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.9183403344068537</v>
+        <v>1.031315074403884</v>
       </c>
       <c r="L15">
-        <v>0.9248542165661271</v>
+        <v>1.036926835544605</v>
       </c>
       <c r="M15">
-        <v>0.9201924332920119</v>
+        <v>1.044098568512556</v>
       </c>
       <c r="N15">
-        <v>0.9722149870016806</v>
+        <v>1.013796284965319</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -824,28 +824,28 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.8932984378344814</v>
+        <v>1.026033907629089</v>
       </c>
       <c r="E16">
-        <v>0.916817041769894</v>
+        <v>1.034584864946815</v>
       </c>
       <c r="F16">
-        <v>0.9128654815013665</v>
+        <v>1.04191092014161</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.9264006371870872</v>
+        <v>1.032419879352861</v>
       </c>
       <c r="L16">
-        <v>0.9328285538583375</v>
+        <v>1.038027428624988</v>
       </c>
       <c r="M16">
-        <v>0.9289669270623223</v>
+        <v>1.045327498144159</v>
       </c>
       <c r="N16">
-        <v>0.9751993268199131</v>
+        <v>1.014192648055195</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -853,28 +853,28 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.8992773124888884</v>
+        <v>1.02686745018941</v>
       </c>
       <c r="E17">
-        <v>0.9220942304035643</v>
+        <v>1.035347855050773</v>
       </c>
       <c r="F17">
-        <v>0.9186397130791963</v>
+        <v>1.042754090270336</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.9312436127120821</v>
+        <v>1.03311102144153</v>
       </c>
       <c r="L17">
-        <v>0.9376215732635725</v>
+        <v>1.038715969682559</v>
       </c>
       <c r="M17">
-        <v>0.93424236052357</v>
+        <v>1.046096560209594</v>
       </c>
       <c r="N17">
-        <v>0.9769938506536484</v>
+        <v>1.014440296640642</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -882,28 +882,28 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9026778829155611</v>
+        <v>1.027352967761147</v>
       </c>
       <c r="E18">
-        <v>0.9250983657589559</v>
+        <v>1.035792284708298</v>
       </c>
       <c r="F18">
-        <v>0.9219267607558153</v>
+        <v>1.043245289960371</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.9339985713914344</v>
+        <v>1.033513487843186</v>
       </c>
       <c r="L18">
-        <v>0.9403486750473927</v>
+        <v>1.039116933547571</v>
       </c>
       <c r="M18">
-        <v>0.9372444943333273</v>
+        <v>1.046544498368184</v>
       </c>
       <c r="N18">
-        <v>0.9780150546377696</v>
+        <v>1.014584396272636</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -911,28 +911,28 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9038234088435783</v>
+        <v>1.027518403541066</v>
       </c>
       <c r="E19">
-        <v>0.9261107746976167</v>
+        <v>1.035943721312831</v>
       </c>
       <c r="F19">
-        <v>0.9230345120150575</v>
+        <v>1.043412674438442</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.9349266757720873</v>
+        <v>1.033650606598615</v>
       </c>
       <c r="L19">
-        <v>0.9412674859090902</v>
+        <v>1.039253542438254</v>
       </c>
       <c r="M19">
-        <v>0.9382560638659387</v>
+        <v>1.04669712568265</v>
       </c>
       <c r="N19">
-        <v>0.9783591359048142</v>
+        <v>1.014633471543508</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -940,28 +940,28 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.8986449962393925</v>
+        <v>1.026778088910315</v>
       </c>
       <c r="E20">
-        <v>0.9215358398098865</v>
+        <v>1.03526605671531</v>
       </c>
       <c r="F20">
-        <v>0.9180287347823016</v>
+        <v>1.042663689154085</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.9307313770056436</v>
+        <v>1.033036937450379</v>
       </c>
       <c r="L20">
-        <v>0.9371145617617143</v>
+        <v>1.038642163243584</v>
       </c>
       <c r="M20">
-        <v>0.9336842615670914</v>
+        <v>1.046014113847934</v>
       </c>
       <c r="N20">
-        <v>0.9768040039104223</v>
+        <v>1.014413762527972</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -969,28 +969,28 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.8807265736021004</v>
+        <v>1.024363253327549</v>
       </c>
       <c r="E21">
-        <v>0.9057407197589111</v>
+        <v>1.033055666620427</v>
       </c>
       <c r="F21">
-        <v>0.9007451206861364</v>
+        <v>1.040221449297814</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.9162215964727227</v>
+        <v>1.031033953564367</v>
       </c>
       <c r="L21">
-        <v>0.9227586684903758</v>
+        <v>1.036646796958576</v>
       </c>
       <c r="M21">
-        <v>0.9178870706121638</v>
+        <v>1.043785947385486</v>
       </c>
       <c r="N21">
-        <v>0.9714310934524548</v>
+        <v>1.013695334487559</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -998,28 +998,28 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.8684672939090637</v>
+        <v>1.022838626403462</v>
       </c>
       <c r="E22">
-        <v>0.8949672748286257</v>
+        <v>1.031660192195375</v>
       </c>
       <c r="F22">
-        <v>0.8889542587254352</v>
+        <v>1.038680200795731</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.9063032408825068</v>
+        <v>1.029768393883549</v>
       </c>
       <c r="L22">
-        <v>0.9129522177330655</v>
+        <v>1.035386161784353</v>
       </c>
       <c r="M22">
-        <v>0.9071009122119745</v>
+        <v>1.042378990933126</v>
       </c>
       <c r="N22">
-        <v>0.9677652654418629</v>
+        <v>1.013240407459075</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1027,28 +1027,28 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.8750727083741101</v>
+        <v>1.023647471882665</v>
       </c>
       <c r="E23">
-        <v>0.9007686438584473</v>
+        <v>1.032400512166617</v>
       </c>
       <c r="F23">
-        <v>0.8953037939328515</v>
+        <v>1.039497799546495</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.9116462759448932</v>
+        <v>1.03043988950466</v>
       </c>
       <c r="L23">
-        <v>0.9182342793467794</v>
+        <v>1.036055033862708</v>
       </c>
       <c r="M23">
-        <v>0.91291025827313</v>
+        <v>1.043125427002245</v>
       </c>
       <c r="N23">
-        <v>0.9697392394637477</v>
+        <v>1.013481881958445</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1056,28 +1056,28 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.8989309789045385</v>
+        <v>1.02681846950613</v>
       </c>
       <c r="E24">
-        <v>0.9217883792982144</v>
+        <v>1.03530301974448</v>
       </c>
       <c r="F24">
-        <v>0.9183050578540884</v>
+        <v>1.042704539402102</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.9309630485402178</v>
+        <v>1.033070414871012</v>
       </c>
       <c r="L24">
-        <v>0.9373438687776572</v>
+        <v>1.03867551520525</v>
       </c>
       <c r="M24">
-        <v>0.9339366722733283</v>
+        <v>1.046051369794694</v>
       </c>
       <c r="N24">
-        <v>0.9768898657472155</v>
+        <v>1.01442575323124</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1085,28 +1085,28 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9232517713609116</v>
+        <v>1.030471933579147</v>
       </c>
       <c r="E25">
-        <v>0.9433130748662589</v>
+        <v>1.03864741647204</v>
       </c>
       <c r="F25">
-        <v>0.9418578224267306</v>
+        <v>1.046402085227728</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.9506700370390746</v>
+        <v>1.036097008098111</v>
       </c>
       <c r="L25">
-        <v>0.9568601134378967</v>
+        <v>1.041691023941353</v>
       </c>
       <c r="M25">
-        <v>0.9554311716717034</v>
+        <v>1.049421663745579</v>
       </c>
       <c r="N25">
-        <v>0.9841981867300602</v>
+        <v>1.015507385343154</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_147/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_147/res_bus/vm_pu.xlsx
@@ -418,28 +418,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.033366029227541</v>
+        <v>0.9406701231914564</v>
       </c>
       <c r="E2">
-        <v>1.041296853725589</v>
+        <v>0.9587835942880237</v>
       </c>
       <c r="F2">
-        <v>1.049333393264742</v>
+        <v>0.9587906776523056</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1.038491151223592</v>
+        <v>0.9647827423474213</v>
       </c>
       <c r="L2">
-        <v>1.044076768678686</v>
+        <v>0.9708486554631133</v>
       </c>
       <c r="M2">
-        <v>1.052090743175996</v>
+        <v>0.970855629014183</v>
       </c>
       <c r="N2">
-        <v>1.016359438818662</v>
+        <v>0.9894316961923434</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -447,28 +447,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.035456500123056</v>
+        <v>0.9524186050830665</v>
       </c>
       <c r="E3">
-        <v>1.043210675826196</v>
+        <v>0.9692419938083154</v>
       </c>
       <c r="F3">
-        <v>1.051452051245787</v>
+        <v>0.970242268581333</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1.040218527726439</v>
+        <v>0.974296142935916</v>
       </c>
       <c r="L3">
-        <v>1.045798295184488</v>
+        <v>0.9802841676473341</v>
       </c>
       <c r="M3">
-        <v>1.054018255724803</v>
+        <v>0.9812706174023293</v>
       </c>
       <c r="N3">
-        <v>1.016972109842518</v>
+        <v>0.9929555615789046</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -476,28 +476,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.036804338530668</v>
+        <v>0.9596667929265281</v>
       </c>
       <c r="E4">
-        <v>1.044444645201333</v>
+        <v>0.9757032499612405</v>
       </c>
       <c r="F4">
-        <v>1.052818661432288</v>
+        <v>0.9773197444983326</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.041331346126494</v>
+        <v>0.9801616929219883</v>
       </c>
       <c r="L4">
-        <v>1.046907440178717</v>
+        <v>0.9861040388340164</v>
       </c>
       <c r="M4">
-        <v>1.055260824523871</v>
+        <v>0.9876998335070279</v>
       </c>
       <c r="N4">
-        <v>1.017365833892181</v>
+        <v>0.9951252939962184</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -505,28 +505,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.037369841693725</v>
+        <v>0.9626369232228102</v>
       </c>
       <c r="E5">
-        <v>1.044962378131683</v>
+        <v>0.9783528230347589</v>
       </c>
       <c r="F5">
-        <v>1.053392182731226</v>
+        <v>0.9802227022168322</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.041798024285772</v>
+        <v>0.9825642106938944</v>
       </c>
       <c r="L5">
-        <v>1.047372600427122</v>
+        <v>0.9884883668270316</v>
       </c>
       <c r="M5">
-        <v>1.055782111355798</v>
+        <v>0.9903350710637395</v>
       </c>
       <c r="N5">
-        <v>1.017530713907021</v>
+        <v>0.9960131695381309</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -534,28 +534,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.037464726867819</v>
+        <v>0.9631313086352362</v>
       </c>
       <c r="E6">
-        <v>1.045049248248011</v>
+        <v>0.978793956658048</v>
       </c>
       <c r="F6">
-        <v>1.05348842157114</v>
+        <v>0.9807060647623954</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.041876314838629</v>
+        <v>0.9829640503111992</v>
       </c>
       <c r="L6">
-        <v>1.047450637651735</v>
+        <v>0.9888852087019296</v>
       </c>
       <c r="M6">
-        <v>1.055869574615348</v>
+        <v>0.9907737489818055</v>
       </c>
       <c r="N6">
-        <v>1.01755836060787</v>
+        <v>0.9961608810379834</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -563,28 +563,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.036811899204402</v>
+        <v>0.9597067731935054</v>
       </c>
       <c r="E7">
-        <v>1.0444515671777</v>
+        <v>0.975738908003676</v>
       </c>
       <c r="F7">
-        <v>1.052826328749198</v>
+        <v>0.9773588097804038</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.0413375863911</v>
+        <v>0.980194037003067</v>
       </c>
       <c r="L7">
-        <v>1.046913660057775</v>
+        <v>0.98613613601946</v>
       </c>
       <c r="M7">
-        <v>1.055267794227486</v>
+        <v>0.987735303304644</v>
       </c>
       <c r="N7">
-        <v>1.017368039536576</v>
+        <v>0.9951372506112879</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -592,28 +592,28 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.034073532951003</v>
+        <v>0.9447188716536042</v>
       </c>
       <c r="E8">
-        <v>1.041944565930772</v>
+        <v>0.9623856726026696</v>
       </c>
       <c r="F8">
-        <v>1.050050311958026</v>
+        <v>0.9627343128094414</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.039075957746021</v>
+        <v>0.9680619314356609</v>
       </c>
       <c r="L8">
-        <v>1.04465957474345</v>
+        <v>0.9741004678994121</v>
       </c>
       <c r="M8">
-        <v>1.05274313626363</v>
+        <v>0.9744439069496231</v>
       </c>
       <c r="N8">
-        <v>1.016567061135038</v>
+        <v>0.9906468771821579</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -621,28 +621,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.029209801128962</v>
+        <v>0.9151748993590445</v>
       </c>
       <c r="E9">
-        <v>1.037492025308603</v>
+        <v>0.9361545166681802</v>
       </c>
       <c r="F9">
-        <v>1.04512436522637</v>
+        <v>0.9340243381568707</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.035051958522593</v>
+        <v>0.9441248047241554</v>
       </c>
       <c r="L9">
-        <v>1.040649743577525</v>
+        <v>0.9503759710565581</v>
       </c>
       <c r="M9">
-        <v>1.048257462646568</v>
+        <v>0.9482869259773926</v>
       </c>
       <c r="N9">
-        <v>1.015134458890293</v>
+        <v>0.9817702740422681</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -650,28 +650,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.025939617291361</v>
+        <v>0.8926104190860659</v>
       </c>
       <c r="E10">
-        <v>1.034498556500014</v>
+        <v>0.9162101577309049</v>
       </c>
       <c r="F10">
-        <v>1.041815550827718</v>
+        <v>0.9122014266075982</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1.032341682945348</v>
+        <v>0.925843406187561</v>
       </c>
       <c r="L10">
-        <v>1.037949528146232</v>
+        <v>0.9322771519359964</v>
       </c>
       <c r="M10">
-        <v>1.045240498997321</v>
+        <v>0.9283601017877218</v>
       </c>
       <c r="N10">
-        <v>1.014164613834183</v>
+        <v>0.9749929109167149</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -679,28 +679,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.024516597594766</v>
+        <v>0.8819158412008389</v>
       </c>
       <c r="E11">
-        <v>1.033196024245223</v>
+        <v>0.9067873154486282</v>
       </c>
       <c r="F11">
-        <v>1.04037649423181</v>
+        <v>0.9018904358710494</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1.031161200832586</v>
+        <v>0.9171842076014298</v>
       </c>
       <c r="L11">
-        <v>1.036773553826061</v>
+        <v>0.9237107128586064</v>
       </c>
       <c r="M11">
-        <v>1.043927448861384</v>
+        <v>0.9189344155542708</v>
       </c>
       <c r="N11">
-        <v>1.013741033680938</v>
+        <v>0.9717872094098995</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -708,28 +708,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.023986934918853</v>
+        <v>0.8777755549434736</v>
       </c>
       <c r="E12">
-        <v>1.032711220915081</v>
+        <v>0.9031448295958904</v>
       </c>
       <c r="F12">
-        <v>1.039840979805728</v>
+        <v>0.8979042947929042</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1.030721647574991</v>
+        <v>0.9138333077145433</v>
       </c>
       <c r="L12">
-        <v>1.036335698255755</v>
+        <v>0.9203968193082209</v>
       </c>
       <c r="M12">
-        <v>1.043438686032645</v>
+        <v>0.9152889499180722</v>
       </c>
       <c r="N12">
-        <v>1.013583141053325</v>
+        <v>0.9705477918726498</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -737,28 +737,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.024100599274608</v>
+        <v>0.8786718251183248</v>
       </c>
       <c r="E13">
-        <v>1.032815257965508</v>
+        <v>0.9039330742134722</v>
       </c>
       <c r="F13">
-        <v>1.039955894605356</v>
+        <v>0.8987669269977026</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>1.030815982143405</v>
+        <v>0.9145586201279344</v>
       </c>
       <c r="L13">
-        <v>1.036429667602275</v>
+        <v>0.9211140684616013</v>
       </c>
       <c r="M13">
-        <v>1.043543574808477</v>
+        <v>0.9160779278678322</v>
       </c>
       <c r="N13">
-        <v>1.013617034894785</v>
+        <v>0.9708160094506497</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -766,28 +766,28 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.024472837959735</v>
+        <v>0.8815772292666423</v>
       </c>
       <c r="E14">
-        <v>1.033155970530062</v>
+        <v>0.9064892995739277</v>
       </c>
       <c r="F14">
-        <v>1.040332248738053</v>
+        <v>0.9015643116167849</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1.031124889223288</v>
+        <v>0.9169101229006722</v>
       </c>
       <c r="L14">
-        <v>1.036737382070019</v>
+        <v>0.9234396315964329</v>
       </c>
       <c r="M14">
-        <v>1.043887068933161</v>
+        <v>0.9186361951214304</v>
       </c>
       <c r="N14">
-        <v>1.013727993633358</v>
+        <v>0.9716858068204448</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -795,28 +795,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.024702040976964</v>
+        <v>0.8833440775647831</v>
       </c>
       <c r="E15">
-        <v>1.033365763308621</v>
+        <v>0.9080445473252746</v>
       </c>
       <c r="F15">
-        <v>1.040564001381582</v>
+        <v>0.9032662328231861</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1.031315074403884</v>
+        <v>0.9183403344068539</v>
       </c>
       <c r="L15">
-        <v>1.036926835544605</v>
+        <v>0.9248542165661273</v>
       </c>
       <c r="M15">
-        <v>1.044098568512556</v>
+        <v>0.9201924332920123</v>
       </c>
       <c r="N15">
-        <v>1.013796284965319</v>
+        <v>0.9722149870016806</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -824,28 +824,28 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.026033907629089</v>
+        <v>0.8932984378344818</v>
       </c>
       <c r="E16">
-        <v>1.034584864946815</v>
+        <v>0.9168170417698945</v>
       </c>
       <c r="F16">
-        <v>1.04191092014161</v>
+        <v>0.9128654815013669</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1.032419879352861</v>
+        <v>0.9264006371870876</v>
       </c>
       <c r="L16">
-        <v>1.038027428624988</v>
+        <v>0.9328285538583379</v>
       </c>
       <c r="M16">
-        <v>1.045327498144159</v>
+        <v>0.9289669270623225</v>
       </c>
       <c r="N16">
-        <v>1.014192648055195</v>
+        <v>0.9751993268199132</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -853,28 +853,28 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.02686745018941</v>
+        <v>0.8992773124888899</v>
       </c>
       <c r="E17">
-        <v>1.035347855050773</v>
+        <v>0.9220942304035662</v>
       </c>
       <c r="F17">
-        <v>1.042754090270336</v>
+        <v>0.9186397130791984</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>1.03311102144153</v>
+        <v>0.9312436127120834</v>
       </c>
       <c r="L17">
-        <v>1.038715969682559</v>
+        <v>0.9376215732635741</v>
       </c>
       <c r="M17">
-        <v>1.046096560209594</v>
+        <v>0.934242360523572</v>
       </c>
       <c r="N17">
-        <v>1.014440296640642</v>
+        <v>0.976993850653649</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -882,28 +882,28 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.027352967761147</v>
+        <v>0.9026778829155599</v>
       </c>
       <c r="E18">
-        <v>1.035792284708298</v>
+        <v>0.9250983657589542</v>
       </c>
       <c r="F18">
-        <v>1.043245289960371</v>
+        <v>0.9219267607558133</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1.033513487843186</v>
+        <v>0.9339985713914329</v>
       </c>
       <c r="L18">
-        <v>1.039116933547571</v>
+        <v>0.9403486750473913</v>
       </c>
       <c r="M18">
-        <v>1.046544498368184</v>
+        <v>0.9372444943333255</v>
       </c>
       <c r="N18">
-        <v>1.014584396272636</v>
+        <v>0.9780150546377693</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -911,28 +911,28 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.027518403541066</v>
+        <v>0.9038234088435796</v>
       </c>
       <c r="E19">
-        <v>1.035943721312831</v>
+        <v>0.9261107746976176</v>
       </c>
       <c r="F19">
-        <v>1.043412674438442</v>
+        <v>0.9230345120150586</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1.033650606598615</v>
+        <v>0.9349266757720882</v>
       </c>
       <c r="L19">
-        <v>1.039253542438254</v>
+        <v>0.9412674859090912</v>
       </c>
       <c r="M19">
-        <v>1.04669712568265</v>
+        <v>0.9382560638659397</v>
       </c>
       <c r="N19">
-        <v>1.014633471543508</v>
+        <v>0.9783591359048144</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -940,28 +940,28 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.026778088910315</v>
+        <v>0.8986449962393919</v>
       </c>
       <c r="E20">
-        <v>1.03526605671531</v>
+        <v>0.9215358398098858</v>
       </c>
       <c r="F20">
-        <v>1.042663689154085</v>
+        <v>0.9180287347823012</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>1.033036937450379</v>
+        <v>0.930731377005643</v>
       </c>
       <c r="L20">
-        <v>1.038642163243584</v>
+        <v>0.9371145617617137</v>
       </c>
       <c r="M20">
-        <v>1.046014113847934</v>
+        <v>0.9336842615670908</v>
       </c>
       <c r="N20">
-        <v>1.014413762527972</v>
+        <v>0.9768040039104222</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -969,28 +969,28 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.024363253327549</v>
+        <v>0.8807265736021004</v>
       </c>
       <c r="E21">
-        <v>1.033055666620427</v>
+        <v>0.905740719758911</v>
       </c>
       <c r="F21">
-        <v>1.040221449297814</v>
+        <v>0.9007451206861364</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1.031033953564367</v>
+        <v>0.9162215964727228</v>
       </c>
       <c r="L21">
-        <v>1.036646796958576</v>
+        <v>0.9227586684903758</v>
       </c>
       <c r="M21">
-        <v>1.043785947385486</v>
+        <v>0.9178870706121639</v>
       </c>
       <c r="N21">
-        <v>1.013695334487559</v>
+        <v>0.9714310934524549</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -998,28 +998,28 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.022838626403462</v>
+        <v>0.8684672939090631</v>
       </c>
       <c r="E22">
-        <v>1.031660192195375</v>
+        <v>0.894967274828625</v>
       </c>
       <c r="F22">
-        <v>1.038680200795731</v>
+        <v>0.8889542587254348</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1.029768393883549</v>
+        <v>0.9063032408825065</v>
       </c>
       <c r="L22">
-        <v>1.035386161784353</v>
+        <v>0.9129522177330648</v>
       </c>
       <c r="M22">
-        <v>1.042378990933126</v>
+        <v>0.907100912211974</v>
       </c>
       <c r="N22">
-        <v>1.013240407459075</v>
+        <v>0.9677652654418626</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1027,28 +1027,28 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.023647471882665</v>
+        <v>0.8750727083741102</v>
       </c>
       <c r="E23">
-        <v>1.032400512166617</v>
+        <v>0.9007686438584478</v>
       </c>
       <c r="F23">
-        <v>1.039497799546495</v>
+        <v>0.8953037939328514</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>1.03043988950466</v>
+        <v>0.9116462759448936</v>
       </c>
       <c r="L23">
-        <v>1.036055033862708</v>
+        <v>0.9182342793467797</v>
       </c>
       <c r="M23">
-        <v>1.043125427002245</v>
+        <v>0.91291025827313</v>
       </c>
       <c r="N23">
-        <v>1.013481881958445</v>
+        <v>0.969739239463748</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1056,28 +1056,28 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.02681846950613</v>
+        <v>0.8989309789045387</v>
       </c>
       <c r="E24">
-        <v>1.03530301974448</v>
+        <v>0.9217883792982147</v>
       </c>
       <c r="F24">
-        <v>1.042704539402102</v>
+        <v>0.9183050578540887</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>1.033070414871012</v>
+        <v>0.9309630485402182</v>
       </c>
       <c r="L24">
-        <v>1.03867551520525</v>
+        <v>0.9373438687776574</v>
       </c>
       <c r="M24">
-        <v>1.046051369794694</v>
+        <v>0.9339366722733287</v>
       </c>
       <c r="N24">
-        <v>1.01442575323124</v>
+        <v>0.9768898657472156</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1085,28 +1085,28 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.030471933579147</v>
+        <v>0.9232517713609114</v>
       </c>
       <c r="E25">
-        <v>1.03864741647204</v>
+        <v>0.9433130748662586</v>
       </c>
       <c r="F25">
-        <v>1.046402085227728</v>
+        <v>0.9418578224267301</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>1.036097008098111</v>
+        <v>0.9506700370390742</v>
       </c>
       <c r="L25">
-        <v>1.041691023941353</v>
+        <v>0.9568601134378963</v>
       </c>
       <c r="M25">
-        <v>1.049421663745579</v>
+        <v>0.9554311716717032</v>
       </c>
       <c r="N25">
-        <v>1.015507385343154</v>
+        <v>0.9841981867300601</v>
       </c>
     </row>
   </sheetData>
